--- a/log/log_201508030120_周会全.xlsx
+++ b/log/log_201508030120_周会全.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>重调环境后，成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加开发文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,10 +537,11 @@
     <col min="3" max="3" width="46.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +557,11 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43217</v>
       </c>
@@ -558,8 +574,11 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43219</v>
       </c>
@@ -572,8 +591,11 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
@@ -586,8 +608,11 @@
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43221</v>
       </c>
@@ -600,8 +625,11 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43223</v>
       </c>
@@ -614,8 +642,11 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43225</v>
       </c>
@@ -628,8 +659,11 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43228</v>
       </c>
@@ -642,8 +676,11 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43229</v>
       </c>
@@ -656,8 +693,11 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43230</v>
       </c>
@@ -670,8 +710,11 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43231</v>
       </c>
@@ -684,8 +727,11 @@
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43232</v>
       </c>
@@ -698,8 +744,11 @@
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43233</v>
       </c>
@@ -712,8 +761,11 @@
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43234</v>
       </c>
@@ -726,8 +778,11 @@
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43235</v>
       </c>
@@ -740,8 +795,11 @@
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43236</v>
       </c>
@@ -754,8 +812,11 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43237</v>
       </c>
@@ -771,8 +832,11 @@
       <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43238</v>
       </c>
@@ -788,8 +852,11 @@
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43239</v>
       </c>
@@ -802,8 +869,11 @@
       <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="2">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43240</v>
       </c>
@@ -816,8 +886,11 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="2">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43241</v>
       </c>
@@ -830,8 +903,11 @@
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="2">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43242</v>
       </c>
@@ -844,8 +920,11 @@
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43246</v>
       </c>
@@ -857,6 +936,25 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43287</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030120_周会全.xlsx
+++ b/log/log_201508030120_周会全.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="2">
-        <v>43287</v>
+        <v>43286</v>
       </c>
     </row>
   </sheetData>
